--- a/biology/Biologie cellulaire et moléculaire/Expérience_de_Griffith/Expérience_de_Griffith.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Expérience_de_Griffith/Expérience_de_Griffith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exp%C3%A9rience_de_Griffith</t>
+          <t>Expérience_de_Griffith</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1928, Frederick Griffith a constaté qu'en injectant à une souris des pneumocoques de souche R ("rough" et non virulents) ainsi qu'une petite quantité de pneumocoques S ("smooth", encapsulés et virulents) tués, la souris meurt et on récupère des pneumocoques des deux souches dans son sang.
 De plus, si la souche R non virulente dérive d'un pneumocoque de type antigénique III par exemple, et qu'on y ajoute du pneumocoque de type S (virulent) tué de type II, les pneumocoques encapsulés que l'on récupère seront de type antigénique II. Ainsi les deux caractères d'une souche bactérienne, la virulence et l'antigène de type II ont été transférés à une autre souche.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exp%C3%A9rience_de_Griffith</t>
+          <t>Expérience_de_Griffith</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Expérience de Avery, MacLeod et MacCarthy
 Expériences de Hershey et Chase
